--- a/基本設計・詳細設計/詳細設計書.xlsx
+++ b/基本設計・詳細設計/詳細設計書.xlsx
@@ -22,13 +22,15 @@
     <sheet name="画面レイアウト(アカウント削除操作)" sheetId="15" r:id="rId18"/>
     <sheet name="画面レイアウト(アカウント更新操作)" sheetId="16" r:id="rId19"/>
     <sheet name="画面レイアウト(ログアウト)" sheetId="17" r:id="rId20"/>
-    <sheet name="機能一覧表" sheetId="18" r:id="rId21"/>
+    <sheet name="項目説明書(ログイン)" sheetId="18" r:id="rId21"/>
+    <sheet name="項目説明書(TOPページ)" sheetId="19" r:id="rId22"/>
+    <sheet name="項目説明書(アカウント登録操作)" sheetId="20" r:id="rId23"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -317,6 +319,9 @@
     <t>ログアウト画面(ログアウトボタン押下時に画面表示)</t>
   </si>
   <si>
+    <t>項目説明書(ログイン)</t>
+  </si>
+  <si>
     <t>項目説明書</t>
   </si>
   <si>
@@ -348,6 +353,93 @@
   </si>
   <si>
     <t>備考</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>半角英数字・記号/空欄</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>半角英数字/空欄</t>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+  </si>
+  <si>
+    <t>項目説明書(TOPページ)</t>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>項目説明書(アカウント登録操作)</t>
+  </si>
+  <si>
+    <t>ひらがな、漢字/空欄</t>
+  </si>
+  <si>
+    <t>カナ/空欄</t>
+  </si>
+  <si>
+    <t>半角英数字、半角ハイフン、半角記号/空欄</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>男または女/男性</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>半角数字/空欄</t>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>北海道〜沖縄/空欄</t>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>ひらがな、漢字、カタカナ、数字、記号/空欄</t>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+  </si>
+  <si>
+    <t>一般または管理者/一般</t>
+  </si>
+  <si>
+    <t>「確認する」ボタン</t>
+  </si>
+  <si>
+    <t>「前に戻る」ボタン</t>
+  </si>
+  <si>
+    <t>「登録する」ボタン</t>
+  </si>
+  <si>
+    <t>「TOPページに戻る」ボタン</t>
   </si>
 </sst>
 </file>
@@ -856,7 +948,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1086,6 +1178,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -24970,7 +25074,7 @@
     </row>
     <row r="38">
       <c r="B38" t="s" s="3">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -24981,7 +25085,39 @@
         <v>5</v>
       </c>
       <c r="D39" t="s" s="5">
-        <v>19</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="4"/>
+      <c r="C41" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="3">
+        <v>115</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="4"/>
+      <c r="C43" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s" s="5">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -25005,7 +25141,9 @@
     <hyperlink ref="D33" location="'画面レイアウト(アカウント削除操作)'!R1C1" tooltip="" display="画面レイアウト(アカウント削除操作)"/>
     <hyperlink ref="D35" location="'画面レイアウト(アカウント更新操作)'!R1C1" tooltip="" display="画面レイアウト(アカウント更新操作)"/>
     <hyperlink ref="D37" location="'画面レイアウト(ログアウト)'!R1C1" tooltip="" display="画面レイアウト(ログアウト)"/>
-    <hyperlink ref="D39" location="'機能一覧表'!R1C1" tooltip="" display="機能一覧表"/>
+    <hyperlink ref="D39" location="'項目説明書(ログイン)'!R1C1" tooltip="" display="項目説明書(ログイン)"/>
+    <hyperlink ref="D41" location="'項目説明書(TOPページ)'!R1C1" tooltip="" display="項目説明書(TOPページ)"/>
+    <hyperlink ref="D43" location="'項目説明書(アカウント登録操作)'!R1C1" tooltip="" display="項目説明書(アカウント登録操作)"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -33089,13 +33227,14 @@
     <col min="3" max="6" width="8.27344" style="73" customWidth="1"/>
     <col min="7" max="7" width="22.8828" style="73" customWidth="1"/>
     <col min="8" max="8" width="21.6094" style="73" customWidth="1"/>
-    <col min="9" max="12" width="19.6016" style="73" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="73" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="73" customWidth="1"/>
     <col min="13" max="16384" width="19.6016" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="37">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -33149,41 +33288,658 @@
     </row>
     <row r="4" ht="18.65" customHeight="1">
       <c r="A4" t="s" s="74">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="74">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s" s="74">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s" s="74">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s" s="74">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s" s="74">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s" s="74">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s" s="74">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s" s="74">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s" s="75">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K4" s="76"/>
       <c r="L4" s="76"/>
     </row>
     <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" t="s" s="77">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C5" s="78">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s" s="77">
+        <v>106</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" t="s" s="77">
+        <v>107</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" t="s" s="77">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C6" s="78">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="77">
+        <v>106</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" t="s" s="77">
+        <v>109</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="77">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="27.6562" style="79" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="79" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="79" customWidth="1"/>
+    <col min="7" max="7" width="22.8828" style="79" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="79" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="79" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="79" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="74">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s" s="74">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s" s="74">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s" s="74">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s" s="74">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s" s="74">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s" s="74">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -33196,8 +33952,12 @@
       <c r="L5" s="46"/>
     </row>
     <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" t="s" s="77">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -33210,8 +33970,12 @@
       <c r="L6" s="46"/>
     </row>
     <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" t="s" s="77">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
@@ -34133,6 +34897,707 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="30.1094" style="80" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="80" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="80" customWidth="1"/>
+    <col min="7" max="7" width="22.8828" style="80" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="80" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="80" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="80" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="74">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s" s="74">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s" s="74">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s" s="74">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s" s="74">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s" s="74">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s" s="74">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C5" s="78">
+        <v>10</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" t="s" s="77">
+        <v>116</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" t="s" s="77">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C6" s="78">
+        <v>10</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" t="s" s="77">
+        <v>116</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="77">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C7" s="78">
+        <v>10</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" t="s" s="77">
+        <v>117</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" t="s" s="77">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C8" s="78">
+        <v>10</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" t="s" s="77">
+        <v>117</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="33.3" customHeight="1">
+      <c r="A9" t="s" s="77">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C9" s="78">
+        <v>100</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" t="s" s="77">
+        <v>118</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" t="s" s="77">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C10" s="78">
+        <v>10</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" t="s" s="77">
+        <v>109</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" t="s" s="77">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" t="s" s="77">
+        <v>119</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" t="s" s="77">
+        <v>120</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" t="s" s="77">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C12" s="78">
+        <v>7</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" t="s" s="77">
+        <v>122</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" t="s" s="77">
+        <v>124</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" t="s" s="77">
+        <v>125</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="33.3" customHeight="1">
+      <c r="A14" t="s" s="77">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C14" s="78">
+        <v>10</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" t="s" s="77">
+        <v>127</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="33.3" customHeight="1">
+      <c r="A15" t="s" s="77">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C15" s="78">
+        <v>100</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" t="s" s="77">
+        <v>127</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="77">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" t="s" s="77">
+        <v>124</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" t="s" s="77">
+        <v>129</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="77">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" t="s" s="77">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/基本設計・詳細設計/詳細設計書.xlsx
+++ b/基本設計・詳細設計/詳細設計書.xlsx
@@ -25,12 +25,15 @@
     <sheet name="項目説明書(ログイン)" sheetId="18" r:id="rId21"/>
     <sheet name="項目説明書(TOPページ)" sheetId="19" r:id="rId22"/>
     <sheet name="項目説明書(アカウント登録操作)" sheetId="20" r:id="rId23"/>
+    <sheet name="項目説明書(アカウント検索画面)" sheetId="21" r:id="rId24"/>
+    <sheet name="項目説明書(アカウント削除操作)" sheetId="22" r:id="rId25"/>
+    <sheet name="項目説明書(アカウント更新操作)" sheetId="23" r:id="rId26"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -440,6 +443,96 @@
   </si>
   <si>
     <t>「TOPページに戻る」ボタン</t>
+  </si>
+  <si>
+    <t>項目説明書(アカウント検索画面)</t>
+  </si>
+  <si>
+    <t>（アカウント検索欄）</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>「検索」ボタン</t>
+  </si>
+  <si>
+    <t>「全てのアカウント検索」ボタン</t>
+  </si>
+  <si>
+    <t>（アカウント一覧）</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>アカウント基本情報テーブル</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>family_name_kana</t>
+  </si>
+  <si>
+    <t>last_name_kana</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>delete_flg</t>
+  </si>
+  <si>
+    <t>registered_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>「更新」ボタン</t>
+  </si>
+  <si>
+    <t>「削除」ボタン</t>
+  </si>
+  <si>
+    <t>項目説明書(アカウント削除操作)</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>prefecture</t>
+  </si>
+  <si>
+    <t>address_1</t>
+  </si>
+  <si>
+    <t>address_2</t>
+  </si>
+  <si>
+    <t>「削除する」ボタン</t>
+  </si>
+  <si>
+    <t>項目説明書(アカウント更新操作)</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1041,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1184,6 +1277,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -25120,6 +25222,54 @@
         <v>115</v>
       </c>
     </row>
+    <row r="44">
+      <c r="B44" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="4"/>
+      <c r="C45" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="4"/>
+      <c r="C47" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="4"/>
+      <c r="C49" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s" s="5">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -25144,6 +25294,9 @@
     <hyperlink ref="D39" location="'項目説明書(ログイン)'!R1C1" tooltip="" display="項目説明書(ログイン)"/>
     <hyperlink ref="D41" location="'項目説明書(TOPページ)'!R1C1" tooltip="" display="項目説明書(TOPページ)"/>
     <hyperlink ref="D43" location="'項目説明書(アカウント登録操作)'!R1C1" tooltip="" display="項目説明書(アカウント登録操作)"/>
+    <hyperlink ref="D45" location="'項目説明書(アカウント検索画面)'!R1C1" tooltip="" display="項目説明書(アカウント検索画面)"/>
+    <hyperlink ref="D47" location="'項目説明書(アカウント削除操作)'!R1C1" tooltip="" display="項目説明書(アカウント削除操作)"/>
+    <hyperlink ref="D49" location="'項目説明書(アカウント更新操作)'!R1C1" tooltip="" display="項目説明書(アカウント更新操作)"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -35598,6 +35751,2299 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="33.6562" style="81" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="81" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="81" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="81" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="81" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="81" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="81" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="74">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s" s="74">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s" s="74">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s" s="74">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s" s="74">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s" s="74">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s" s="74">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>135</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" t="s" s="77">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C6" s="78">
+        <v>10</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" t="s" s="77">
+        <v>136</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" t="s" s="77">
+        <v>116</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="77">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C7" s="78">
+        <v>10</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" t="s" s="77">
+        <v>136</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" t="s" s="77">
+        <v>116</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" t="s" s="77">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C8" s="78">
+        <v>10</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" t="s" s="77">
+        <v>136</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" t="s" s="77">
+        <v>117</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" t="s" s="77">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C9" s="78">
+        <v>10</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" t="s" s="77">
+        <v>136</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" t="s" s="77">
+        <v>117</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="33.3" customHeight="1">
+      <c r="A10" t="s" s="77">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C10" s="78">
+        <v>100</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" t="s" s="77">
+        <v>136</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" t="s" s="77">
+        <v>118</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" t="s" s="77">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F11" t="s" s="77">
+        <v>119</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" t="s" s="77">
+        <v>120</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" t="s" s="77">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F12" t="s" s="77">
+        <v>124</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" t="s" s="77">
+        <v>129</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" t="s" s="77">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" t="s" s="77">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="77">
+        <v>140</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="77">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C17" s="78">
+        <v>100</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H17" t="s" s="77">
+        <v>143</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="77">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C18" s="78">
+        <v>10</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H18" t="s" s="77">
+        <v>144</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" t="s" s="77">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C19" s="78">
+        <v>10</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H19" t="s" s="77">
+        <v>145</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" t="s" s="77">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C20" s="78">
+        <v>10</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s" s="77">
+        <v>146</v>
+      </c>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" t="s" s="77">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C21" s="78">
+        <v>10</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s" s="77">
+        <v>147</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" t="s" s="77">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C22" s="78">
+        <v>100</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s" s="77">
+        <v>148</v>
+      </c>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" t="s" s="77">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C23" s="78">
+        <v>10</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H23" t="s" s="77">
+        <v>149</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" t="s" s="77">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C24" s="78">
+        <v>1</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H24" t="s" s="77">
+        <v>150</v>
+      </c>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" t="s" s="77">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C25" s="78">
+        <v>1</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H25" t="s" s="77">
+        <v>151</v>
+      </c>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" t="s" s="77">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C26" s="78">
+        <v>1</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s" s="77">
+        <v>152</v>
+      </c>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" t="s" s="77">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H27" t="s" s="77">
+        <v>153</v>
+      </c>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" t="s" s="77">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H28" t="s" s="77">
+        <v>154</v>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" t="s" s="77">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" t="s" s="77">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="33.6562" style="82" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="82" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="82" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="82" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="82" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="82" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="82" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="82" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="74">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s" s="74">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s" s="74">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s" s="74">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s" s="74">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s" s="74">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s" s="74">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C5" s="78">
+        <v>10</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s" s="77">
+        <v>144</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" t="s" s="77">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C6" s="78">
+        <v>10</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H6" t="s" s="77">
+        <v>145</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="77">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C7" s="78">
+        <v>10</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s" s="77">
+        <v>146</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" t="s" s="77">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C8" s="78">
+        <v>10</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H8" t="s" s="77">
+        <v>147</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" t="s" s="77">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C9" s="78">
+        <v>100</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H9" t="s" s="77">
+        <v>148</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" t="s" s="77">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C10" s="78">
+        <v>1</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H10" t="s" s="77">
+        <v>150</v>
+      </c>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" t="s" s="77">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C11" s="78">
+        <v>7</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s" s="77">
+        <v>158</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C12" s="78">
+        <v>100</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H12" t="s" s="77">
+        <v>159</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" t="s" s="77">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C13" s="78">
+        <v>10</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H13" t="s" s="77">
+        <v>160</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" t="s" s="77">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C14" s="78">
+        <v>100</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s" s="77">
+        <v>161</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" t="s" s="77">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C15" s="78">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s" s="77">
+        <v>151</v>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="77">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="77">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" t="s" s="77">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="33.6562" style="83" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="83" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="83" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="83" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="83" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="83" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="83" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="83" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="74">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s" s="74">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s" s="74">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s" s="74">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s" s="74">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s" s="74">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s" s="74">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C5" s="78">
+        <v>10</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s" s="77">
+        <v>144</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" t="s" s="77">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C6" s="78">
+        <v>10</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H6" t="s" s="77">
+        <v>145</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="77">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C7" s="78">
+        <v>10</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s" s="77">
+        <v>146</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" t="s" s="77">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C8" s="78">
+        <v>10</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H8" t="s" s="77">
+        <v>147</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" t="s" s="77">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C9" s="78">
+        <v>100</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H9" t="s" s="77">
+        <v>148</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" t="s" s="77">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C10" s="78">
+        <v>1</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H10" t="s" s="77">
+        <v>150</v>
+      </c>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" t="s" s="77">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C11" s="78">
+        <v>7</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s" s="77">
+        <v>158</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C12" s="78">
+        <v>100</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H12" t="s" s="77">
+        <v>159</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" t="s" s="77">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C13" s="78">
+        <v>10</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H13" t="s" s="77">
+        <v>160</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" t="s" s="77">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C14" s="78">
+        <v>100</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s" s="77">
+        <v>161</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" t="s" s="77">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="C15" s="78">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s" s="77">
+        <v>151</v>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="77">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="77">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" t="s" s="77">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/基本設計・詳細設計/詳細設計書.xlsx
+++ b/基本設計・詳細設計/詳細設計書.xlsx
@@ -22,18 +22,23 @@
     <sheet name="画面レイアウト(アカウント削除操作)" sheetId="15" r:id="rId18"/>
     <sheet name="画面レイアウト(アカウント更新操作)" sheetId="16" r:id="rId19"/>
     <sheet name="画面レイアウト(ログアウト)" sheetId="17" r:id="rId20"/>
-    <sheet name="項目説明書(ログイン)" sheetId="18" r:id="rId21"/>
+    <sheet name="項目説明書(ログイン•ログアウト)" sheetId="18" r:id="rId21"/>
     <sheet name="項目説明書(TOPページ)" sheetId="19" r:id="rId22"/>
-    <sheet name="項目説明書(アカウント登録操作)" sheetId="20" r:id="rId23"/>
-    <sheet name="項目説明書(アカウント検索画面)" sheetId="21" r:id="rId24"/>
+    <sheet name="項目説明書(アカウント検索画面)" sheetId="20" r:id="rId23"/>
+    <sheet name="項目説明書(アカウント登録操作)" sheetId="21" r:id="rId24"/>
     <sheet name="項目説明書(アカウント削除操作)" sheetId="22" r:id="rId25"/>
     <sheet name="項目説明書(アカウント更新操作)" sheetId="23" r:id="rId26"/>
+    <sheet name="イベント一覧(ログイン・ログアウト)" sheetId="24" r:id="rId27"/>
+    <sheet name="イベント一覧(TOPページ)" sheetId="25" r:id="rId28"/>
+    <sheet name="イベント一覧(アカウント登録)" sheetId="26" r:id="rId29"/>
+    <sheet name="イベント一覧(アカウント検索画面)" sheetId="27" r:id="rId30"/>
+    <sheet name="イベント一覧(アカウント更新操作)" sheetId="28" r:id="rId31"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -322,7 +327,7 @@
     <t>ログアウト画面(ログアウトボタン押下時に画面表示)</t>
   </si>
   <si>
-    <t>項目説明書(ログイン)</t>
+    <t>項目説明書(ログイン•ログアウト)</t>
   </si>
   <si>
     <t>項目説明書</t>
@@ -373,7 +378,13 @@
     <t>半角英数字/空欄</t>
   </si>
   <si>
-    <t>ログインボタン</t>
+    <t>「ログイン」ボタン</t>
+  </si>
+  <si>
+    <t>（ログアウト操作時）</t>
+  </si>
+  <si>
+    <t>「ログアウト」ボタン</t>
   </si>
   <si>
     <t>項目説明書(TOPページ)</t>
@@ -388,7 +399,13 @@
     <t>ログアウト</t>
   </si>
   <si>
-    <t>項目説明書(アカウント登録操作)</t>
+    <t>項目説明書(アカウント検索画面)</t>
+  </si>
+  <si>
+    <t>（アカウント検索欄）</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
   <si>
     <t>ひらがな、漢字/空欄</t>
@@ -400,61 +417,19 @@
     <t>半角英数字、半角ハイフン、半角記号/空欄</t>
   </si>
   <si>
+    <t>○</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
     <t>男または女/男性</t>
   </si>
   <si>
-    <t>郵便番号</t>
-  </si>
-  <si>
-    <t>半角数字/空欄</t>
-  </si>
-  <si>
-    <t>住所（都道府県）</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>北海道〜沖縄/空欄</t>
-  </si>
-  <si>
-    <t>住所（市区町村）</t>
-  </si>
-  <si>
-    <t>ひらがな、漢字、カタカナ、数字、記号/空欄</t>
-  </si>
-  <si>
-    <t>住所（番地）</t>
-  </si>
-  <si>
     <t>一般または管理者/一般</t>
-  </si>
-  <si>
-    <t>「確認する」ボタン</t>
-  </si>
-  <si>
-    <t>「前に戻る」ボタン</t>
-  </si>
-  <si>
-    <t>「登録する」ボタン</t>
-  </si>
-  <si>
-    <t>「TOPページに戻る」ボタン</t>
-  </si>
-  <si>
-    <t>項目説明書(アカウント検索画面)</t>
-  </si>
-  <si>
-    <t>（アカウント検索欄）</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>○</t>
   </si>
   <si>
     <t>「検索」ボタン</t>
@@ -514,6 +489,42 @@
     <t>「削除」ボタン</t>
   </si>
   <si>
+    <t>項目説明書(アカウント登録操作)</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>半角数字/空欄</t>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+  </si>
+  <si>
+    <t>北海道〜沖縄/空欄</t>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>ひらがな、漢字、カタカナ、数字、記号/空欄</t>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+  </si>
+  <si>
+    <t>「確認する」ボタン</t>
+  </si>
+  <si>
+    <t>「前に戻る」ボタン</t>
+  </si>
+  <si>
+    <t>「登録する」ボタン</t>
+  </si>
+  <si>
+    <t>「TOPページに戻る」ボタン</t>
+  </si>
+  <si>
     <t>項目説明書(アカウント削除操作)</t>
   </si>
   <si>
@@ -533,6 +544,222 @@
   </si>
   <si>
     <t>項目説明書(アカウント更新操作)</t>
+  </si>
+  <si>
+    <t>ひらがな、漢字/登録済みのアカウント情報</t>
+  </si>
+  <si>
+    <t>カナ/登録済みのアカウント情報</t>
+  </si>
+  <si>
+    <t>半角英数字、半角ハイフン、半角記号/登録済みのアカウント情報</t>
+  </si>
+  <si>
+    <t>半角英数字/登録済みのアカウント情報</t>
+  </si>
+  <si>
+    <t>パスワードの変更有無</t>
+  </si>
+  <si>
+    <t>「表示/非表示」ボタン</t>
+  </si>
+  <si>
+    <t>男または女/登録済みのアカウント情報</t>
+  </si>
+  <si>
+    <t>半角数字/登録済みのアカウント情報</t>
+  </si>
+  <si>
+    <t>北海道〜沖縄/登録済みのアカウント情報</t>
+  </si>
+  <si>
+    <t>ひらがな、漢字、カタカナ、数字、記号/登録済みのアカウント情報</t>
+  </si>
+  <si>
+    <t>一般または管理者/登録済みのアカウント情報</t>
+  </si>
+  <si>
+    <t>「更新する」ボタン</t>
+  </si>
+  <si>
+    <t>イベント一覧(ログイン・ログアウト)</t>
+  </si>
+  <si>
+    <t>イベント一覧</t>
+  </si>
+  <si>
+    <t>ログイン・ログアウト画面</t>
+  </si>
+  <si>
+    <t>イベント</t>
+  </si>
+  <si>
+    <t>処理内容および引数</t>
+  </si>
+  <si>
+    <t>「ログイン」ボタン.クリック</t>
+  </si>
+  <si>
+    <t>TOPページの画面を表示</t>
+  </si>
+  <si>
+    <t>「ログアウト」ボタン.クリック</t>
+  </si>
+  <si>
+    <t>ログインしている状態からログアウト実行</t>
+  </si>
+  <si>
+    <t>イベント一覧(TOPページ)</t>
+  </si>
+  <si>
+    <t>TOPページ画面</t>
+  </si>
+  <si>
+    <t>ページ.ロード</t>
+  </si>
+  <si>
+    <t>　引数1：login_user_transaction.mail , String , 255 , Y , 半角英数字記号・存在</t>
+  </si>
+  <si>
+    <t>　引数2：login_user_transaction.password , String , 255 , Y , 半角英数字・存在</t>
+  </si>
+  <si>
+    <t>　引数3：login_user_transaction.authority , int , 1 , Y , 半存在</t>
+  </si>
+  <si>
+    <t>アカウント権限が管理者（authority = 1）の場合</t>
+  </si>
+  <si>
+    <t>　　アカウント登録ボタンを表示</t>
+  </si>
+  <si>
+    <t>　　アカウント一覧ボタンを表示</t>
+  </si>
+  <si>
+    <t>　　ログアウトボタンを表示</t>
+  </si>
+  <si>
+    <t>アカウント権限が一般（authority = 0）の場合</t>
+  </si>
+  <si>
+    <t>　　アカウント登録ボタンを非表示</t>
+  </si>
+  <si>
+    <t>　　アカウント一覧ボタンを非表示</t>
+  </si>
+  <si>
+    <t>アカウント登録ボタン.クリック</t>
+  </si>
+  <si>
+    <t>アカウント登録画面を表示</t>
+  </si>
+  <si>
+    <t>アカウント一覧ボタン.クリック</t>
+  </si>
+  <si>
+    <t>アカウント検索・一覧画面を表示</t>
+  </si>
+  <si>
+    <t>ログアウトボタン.クリック</t>
+  </si>
+  <si>
+    <t>ログアウト画面を表示</t>
+  </si>
+  <si>
+    <t>イベント一覧(アカウント登録)</t>
+  </si>
+  <si>
+    <t>アカウント登録操作</t>
+  </si>
+  <si>
+    <t>確認するボタン.クリック</t>
+  </si>
+  <si>
+    <t>クライアント側で画面の必須チェックを実施</t>
+  </si>
+  <si>
+    <t>サーバー側で入力値の妥当性チェックを実施</t>
+  </si>
+  <si>
+    <t>「アカウント登録確認画面」に遷移</t>
+  </si>
+  <si>
+    <t>前に戻るボタン.クリック</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」に遷移</t>
+  </si>
+  <si>
+    <t>登録するボタン.クリック</t>
+  </si>
+  <si>
+    <t>データベースを更新</t>
+  </si>
+  <si>
+    <t>「アカウント登録完了画面」に遷移</t>
+  </si>
+  <si>
+    <t>TOPページに戻るボタン.クリック</t>
+  </si>
+  <si>
+    <t>「TOPページ」に遷移</t>
+  </si>
+  <si>
+    <t>イベント一覧(アカウント検索画面)</t>
+  </si>
+  <si>
+    <t>処理内容および引数(データ元, 引数名, データ型, 桁数, 必須, チェック)</t>
+  </si>
+  <si>
+    <t>検索ボタン.クリック</t>
+  </si>
+  <si>
+    <t>　　引数1：login_user_transaction.family_name, varcher , 100 , Y , ひらがな</t>
+  </si>
+  <si>
+    <t>　　引数2：login_user_transaction.last_name, varcher , 100 , Y , ひらがな</t>
+  </si>
+  <si>
+    <t>　　引数3：login_user_transaction.family_name_kana, varcher , 100 , Y , カタカナ</t>
+  </si>
+  <si>
+    <t>　　引数4：login_user_transaction.last_name_kana, varcher , 100 , Y , カタカナ</t>
+  </si>
+  <si>
+    <t>　　引数5：login_user_transaction.mail, varcher , 100 , Y , 半角英数字・記号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　引数6：login_user_transaction.gender, int , 1 , Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　引数7：login_user_transaction.authority, int , 1 , Y </t>
+  </si>
+  <si>
+    <t>上記引数に該当するアカウント情報を表示</t>
+  </si>
+  <si>
+    <t>全てのアカウント検索ボタン.クリック</t>
+  </si>
+  <si>
+    <t>登録済みのアカウント情報を全て表示</t>
+  </si>
+  <si>
+    <t>更新ボタン.クリック</t>
+  </si>
+  <si>
+    <t>「アカウント更新画面」を表示</t>
+  </si>
+  <si>
+    <t>削除ボタン.クリック</t>
+  </si>
+  <si>
+    <t>「アカウント削除画面」を表示</t>
+  </si>
+  <si>
+    <t>イベント一覧(アカウント更新操作)</t>
+  </si>
+  <si>
+    <t>アカウント更新操作</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1268,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1294,6 +1521,24 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6089,7 +6334,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>158211</xdr:rowOff>
+      <xdr:rowOff>158212</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6099,7 +6344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6350" y="1118559"/>
-          <a:ext cx="9944101" cy="10710318"/>
+          <a:ext cx="9944101" cy="10710319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10036,7 +10281,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1225549</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>194238</xdr:rowOff>
+      <xdr:rowOff>194237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -10051,7 +10296,187 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2470149" y="19210583"/>
+          <a:off x="2470149" y="19210582"/>
+          <a:ext cx="1880689" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>郵便番号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198945</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>194237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722420</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>89431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="1234567"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5177345" y="19210582"/>
+          <a:ext cx="1768076" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>1234567</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1225549</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>208378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>617037</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>103571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="性別"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2470149" y="18540828"/>
           <a:ext cx="1880689" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10114,7 +10539,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>郵便番号</a:t>
+            <a:t>性別</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10125,24 +10550,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>198945</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>194238</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>208378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>722420</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>89431</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>718918</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>103571</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="1234567"/>
+        <xdr:cNvPr id="229" name="男性"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5177345" y="19210583"/>
-          <a:ext cx="1768076" cy="579089"/>
+          <a:off x="5177345" y="18540828"/>
+          <a:ext cx="3009174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10204,7 +10629,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>1234567</a:t>
+            <a:t>男性</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10215,23 +10640,23 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1225549</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>208378</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>180096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>617037</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>103572</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>75290</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="228" name="性別"/>
+        <xdr:cNvPr id="230" name="住所（都道府県）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2470149" y="18540828"/>
+          <a:off x="2470149" y="19880336"/>
           <a:ext cx="1880689" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10294,7 +10719,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>性別</a:t>
+            <a:t>住所（都道府県）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10305,23 +10730,203 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>198945</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>208378</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>180096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722420</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>75290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="北海道"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5177345" y="19880336"/>
+          <a:ext cx="1768076" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>北海道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1225549</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>153389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>617037</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>48583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="住所（市区町村）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2470149" y="20537524"/>
+          <a:ext cx="1880689" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>住所（市区町村）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198945</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>153389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>718918</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>103572</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>48583</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="229" name="男性"/>
+        <xdr:cNvPr id="233" name="旭川市"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5177345" y="18540828"/>
+          <a:off x="5177345" y="20537524"/>
           <a:ext cx="3009174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10384,7 +10989,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>男性</a:t>
+            <a:t>旭川市</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10394,25 +10999,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1225549</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>180097</xdr:rowOff>
+      <xdr:colOff>1225550</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>175921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>617037</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>75291</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>71114</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="230" name="住所（都道府県）"/>
+        <xdr:cNvPr id="234" name="住所（番地）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2470149" y="19880337"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="2470150" y="21243951"/>
+          <a:ext cx="1880688" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10474,7 +11079,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>住所（都道府県）</a:t>
+            <a:t>住所（番地）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10485,203 +11090,23 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>198945</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>180097</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>175921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>722420</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>75291</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>718918</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>71114</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="231" name="北海道"/>
+        <xdr:cNvPr id="235" name="1-2-3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5177345" y="19880337"/>
-          <a:ext cx="1768076" cy="579090"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:rPr>
-            <a:t>北海道</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1225549</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>153390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>617037</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>48583</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="住所（市区町村）"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2470149" y="20537525"/>
-          <a:ext cx="1880689" cy="579089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:rPr>
-            <a:t>住所（市区町村）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>198945</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>153390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>718918</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>48583</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="旭川市"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5177345" y="20537525"/>
+          <a:off x="5177345" y="21243951"/>
           <a:ext cx="3009174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10744,7 +11169,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>旭川市</a:t>
+            <a:t>1-2-3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10755,24 +11180,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1225550</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>175921</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>204790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>617037</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>71115</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>99984</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="234" name="住所（番地）"/>
+        <xdr:cNvPr id="236" name="アカウント権限"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2470149" y="21243951"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="2470150" y="21956715"/>
+          <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10834,186 +11259,6 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>住所（番地）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>198945</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>175921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>718918</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>71115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="235" name="1-2-3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5177345" y="21243951"/>
-          <a:ext cx="3009174" cy="579090"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:rPr>
-            <a:t>1-2-3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1225550</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>204791</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>617037</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>99984</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="236" name="アカウント権限"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2470149" y="21956716"/>
-          <a:ext cx="1880689" cy="579089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
-            </a:rPr>
             <a:t>アカウント権限</a:t>
           </a:r>
         </a:p>
@@ -11026,7 +11271,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>198945</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>204791</xdr:rowOff>
+      <xdr:rowOff>204790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -11041,8 +11286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5177345" y="21956716"/>
-          <a:ext cx="1768076" cy="579089"/>
+          <a:off x="5177345" y="21956715"/>
+          <a:ext cx="1768076" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25192,7 +25437,7 @@
     </row>
     <row r="40">
       <c r="B40" t="s" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -25203,12 +25448,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="s" s="5">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -25219,12 +25464,12 @@
         <v>5</v>
       </c>
       <c r="D43" t="s" s="5">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="3">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -25235,12 +25480,12 @@
         <v>5</v>
       </c>
       <c r="D45" t="s" s="5">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s" s="3">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -25251,12 +25496,12 @@
         <v>5</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="3">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -25267,7 +25512,87 @@
         <v>5</v>
       </c>
       <c r="D49" t="s" s="5">
-        <v>163</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="3">
+        <v>178</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="4"/>
+      <c r="C51" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s" s="3">
+        <v>187</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s" s="5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s" s="3">
+        <v>206</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="4"/>
+      <c r="C55" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s" s="3">
+        <v>219</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="4"/>
+      <c r="C57" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s" s="3">
+        <v>236</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="4"/>
+      <c r="C59" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s" s="5">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -25291,12 +25616,17 @@
     <hyperlink ref="D33" location="'画面レイアウト(アカウント削除操作)'!R1C1" tooltip="" display="画面レイアウト(アカウント削除操作)"/>
     <hyperlink ref="D35" location="'画面レイアウト(アカウント更新操作)'!R1C1" tooltip="" display="画面レイアウト(アカウント更新操作)"/>
     <hyperlink ref="D37" location="'画面レイアウト(ログアウト)'!R1C1" tooltip="" display="画面レイアウト(ログアウト)"/>
-    <hyperlink ref="D39" location="'項目説明書(ログイン)'!R1C1" tooltip="" display="項目説明書(ログイン)"/>
+    <hyperlink ref="D39" location="'項目説明書(ログイン•ログアウト)'!R1C1" tooltip="" display="項目説明書(ログイン•ログアウト)"/>
     <hyperlink ref="D41" location="'項目説明書(TOPページ)'!R1C1" tooltip="" display="項目説明書(TOPページ)"/>
-    <hyperlink ref="D43" location="'項目説明書(アカウント登録操作)'!R1C1" tooltip="" display="項目説明書(アカウント登録操作)"/>
-    <hyperlink ref="D45" location="'項目説明書(アカウント検索画面)'!R1C1" tooltip="" display="項目説明書(アカウント検索画面)"/>
+    <hyperlink ref="D43" location="'項目説明書(アカウント検索画面)'!R1C1" tooltip="" display="項目説明書(アカウント検索画面)"/>
+    <hyperlink ref="D45" location="'項目説明書(アカウント登録操作)'!R1C1" tooltip="" display="項目説明書(アカウント登録操作)"/>
     <hyperlink ref="D47" location="'項目説明書(アカウント削除操作)'!R1C1" tooltip="" display="項目説明書(アカウント削除操作)"/>
     <hyperlink ref="D49" location="'項目説明書(アカウント更新操作)'!R1C1" tooltip="" display="項目説明書(アカウント更新操作)"/>
+    <hyperlink ref="D51" location="'イベント一覧(ログイン・ログアウト)'!R1C1" tooltip="" display="イベント一覧(ログイン・ログアウト)"/>
+    <hyperlink ref="D53" location="'イベント一覧(TOPページ)'!R1C1" tooltip="" display="イベント一覧(TOPページ)"/>
+    <hyperlink ref="D55" location="'イベント一覧(アカウント登録)'!R1C1" tooltip="" display="イベント一覧(アカウント登録)"/>
+    <hyperlink ref="D57" location="'イベント一覧(アカウント検索画面)'!R1C1" tooltip="" display="イベント一覧(アカウント検索画面)"/>
+    <hyperlink ref="D59" location="'イベント一覧(アカウント更新操作)'!R1C1" tooltip="" display="イベント一覧(アカウント更新操作)"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -33376,7 +33706,7 @@
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="27.6562" style="73" customWidth="1"/>
-    <col min="2" max="2" width="10.7422" style="73" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="73" customWidth="1"/>
     <col min="3" max="6" width="8.27344" style="73" customWidth="1"/>
     <col min="7" max="7" width="22.8828" style="73" customWidth="1"/>
     <col min="8" max="8" width="21.6094" style="73" customWidth="1"/>
@@ -33521,7 +33851,7 @@
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
     </row>
-    <row r="7" ht="18.3" customHeight="1">
+    <row r="7" ht="18.35" customHeight="1">
       <c r="A7" t="s" s="77">
         <v>110</v>
       </c>
@@ -33553,8 +33883,10 @@
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" s="46"/>
+    <row r="9" ht="18.35" customHeight="1">
+      <c r="A9" t="s" s="77">
+        <v>111</v>
+      </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
@@ -33567,9 +33899,13 @@
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+    <row r="10" ht="18.35" customHeight="1">
+      <c r="A10" t="s" s="77">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -33581,9 +33917,13 @@
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+    <row r="11" ht="18.35" customHeight="1">
+      <c r="A11" t="s" s="77">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -34088,7 +34428,7 @@
     </row>
     <row r="5" ht="18.3" customHeight="1">
       <c r="A5" t="s" s="77">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s" s="77">
         <v>105</v>
@@ -34106,7 +34446,7 @@
     </row>
     <row r="6" ht="18.3" customHeight="1">
       <c r="A6" t="s" s="77">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="77">
         <v>105</v>
@@ -34124,7 +34464,7 @@
     </row>
     <row r="7" ht="18.3" customHeight="1">
       <c r="A7" t="s" s="77">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="77">
         <v>105</v>
@@ -35061,10 +35401,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.1094" style="80" customWidth="1"/>
+    <col min="1" max="1" width="33.6562" style="80" customWidth="1"/>
     <col min="2" max="2" width="10.7188" style="80" customWidth="1"/>
     <col min="3" max="6" width="8.27344" style="80" customWidth="1"/>
-    <col min="7" max="7" width="22.8828" style="80" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="80" customWidth="1"/>
     <col min="8" max="8" width="21.6094" style="80" customWidth="1"/>
     <col min="9" max="9" width="23.8594" style="80" customWidth="1"/>
     <col min="10" max="12" width="19.6016" style="80" customWidth="1"/>
@@ -35161,29 +35501,23 @@
     </row>
     <row r="5" ht="18.3" customHeight="1">
       <c r="A5" t="s" s="77">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s" s="77">
-        <v>105</v>
-      </c>
-      <c r="C5" s="78">
-        <v>10</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
-      <c r="I5" t="s" s="77">
-        <v>116</v>
-      </c>
+      <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
     </row>
     <row r="6" ht="18.3" customHeight="1">
       <c r="A6" t="s" s="77">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s" s="77">
         <v>105</v>
@@ -35192,12 +35526,14 @@
         <v>10</v>
       </c>
       <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="E6" t="s" s="77">
+        <v>119</v>
+      </c>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
       <c r="I6" t="s" s="77">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
@@ -35205,7 +35541,7 @@
     </row>
     <row r="7" ht="18.3" customHeight="1">
       <c r="A7" t="s" s="77">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s" s="77">
         <v>105</v>
@@ -35214,12 +35550,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="E7" t="s" s="77">
+        <v>119</v>
+      </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" t="s" s="77">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
@@ -35227,7 +35565,7 @@
     </row>
     <row r="8" ht="18.3" customHeight="1">
       <c r="A8" t="s" s="77">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s" s="77">
         <v>105</v>
@@ -35236,56 +35574,62 @@
         <v>10</v>
       </c>
       <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="E8" t="s" s="77">
+        <v>119</v>
+      </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" t="s" s="77">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" ht="33.3" customHeight="1">
+    <row r="9" ht="18.3" customHeight="1">
       <c r="A9" t="s" s="77">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="77">
         <v>105</v>
       </c>
       <c r="C9" s="78">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="E9" t="s" s="77">
+        <v>119</v>
+      </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" t="s" s="77">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" ht="18.3" customHeight="1">
+    <row r="10" ht="33.3" customHeight="1">
       <c r="A10" t="s" s="77">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s" s="77">
         <v>105</v>
       </c>
       <c r="C10" s="78">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="E10" t="s" s="77">
+        <v>119</v>
+      </c>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" t="s" s="77">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
@@ -35300,14 +35644,16 @@
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="E11" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F11" t="s" s="77">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
       <c r="I11" t="s" s="77">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
@@ -35315,21 +35661,23 @@
     </row>
     <row r="12" ht="18.3" customHeight="1">
       <c r="A12" t="s" s="77">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="77">
         <v>105</v>
       </c>
-      <c r="C12" s="78">
-        <v>7</v>
-      </c>
+      <c r="C12" s="46"/>
       <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="E12" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s" s="77">
+        <v>126</v>
+      </c>
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
       <c r="I12" t="s" s="77">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
@@ -35337,7 +35685,7 @@
     </row>
     <row r="13" ht="18.3" customHeight="1">
       <c r="A13" t="s" s="77">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="77">
         <v>105</v>
@@ -35345,97 +35693,83 @@
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
-      <c r="F13" t="s" s="77">
-        <v>124</v>
-      </c>
+      <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
-      <c r="I13" t="s" s="77">
-        <v>125</v>
-      </c>
+      <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" ht="33.3" customHeight="1">
+    <row r="14" ht="18.3" customHeight="1">
       <c r="A14" t="s" s="77">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="77">
         <v>105</v>
       </c>
-      <c r="C14" s="78">
-        <v>10</v>
-      </c>
+      <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
-      <c r="I14" t="s" s="77">
-        <v>127</v>
-      </c>
+      <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" ht="33.3" customHeight="1">
-      <c r="A15" t="s" s="77">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s" s="77">
-        <v>105</v>
-      </c>
-      <c r="C15" s="78">
-        <v>100</v>
-      </c>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" t="s" s="77">
-        <v>127</v>
-      </c>
+      <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
       <c r="A16" t="s" s="77">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s" s="77">
-        <v>105</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B16" s="46"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
-      <c r="F16" t="s" s="77">
-        <v>124</v>
-      </c>
+      <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
-      <c r="I16" t="s" s="77">
-        <v>129</v>
-      </c>
+      <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
       <c r="A17" t="s" s="77">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s" s="77">
-        <v>105</v>
-      </c>
-      <c r="C17" s="46"/>
+        <v>131</v>
+      </c>
+      <c r="C17" s="78">
+        <v>100</v>
+      </c>
       <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="E17" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+      <c r="G17" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H17" t="s" s="77">
+        <v>133</v>
+      </c>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
@@ -35443,17 +35777,25 @@
     </row>
     <row r="18" ht="18.3" customHeight="1">
       <c r="A18" t="s" s="77">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s" s="77">
         <v>131</v>
       </c>
-      <c r="B18" t="s" s="77">
-        <v>105</v>
-      </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="78">
+        <v>10</v>
+      </c>
       <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="E18" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
+      <c r="G18" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H18" t="s" s="77">
+        <v>134</v>
+      </c>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -35461,17 +35803,25 @@
     </row>
     <row r="19" ht="18.3" customHeight="1">
       <c r="A19" t="s" s="77">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="C19" s="78">
+        <v>10</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" t="s" s="77">
         <v>132</v>
       </c>
-      <c r="B19" t="s" s="77">
-        <v>105</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
+      <c r="H19" t="s" s="77">
+        <v>135</v>
+      </c>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="46"/>
@@ -35479,137 +35829,241 @@
     </row>
     <row r="20" ht="18.3" customHeight="1">
       <c r="A20" t="s" s="77">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="77">
-        <v>105</v>
-      </c>
-      <c r="C20" s="46"/>
+        <v>131</v>
+      </c>
+      <c r="C20" s="78">
+        <v>10</v>
+      </c>
       <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="E20" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
+      <c r="G20" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H20" t="s" s="77">
+        <v>136</v>
+      </c>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="A21" t="s" s="77">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="C21" s="78">
+        <v>10</v>
+      </c>
       <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="E21" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
+      <c r="G21" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H21" t="s" s="77">
+        <v>137</v>
+      </c>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="A22" t="s" s="77">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="C22" s="78">
+        <v>100</v>
+      </c>
       <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="E22" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+      <c r="G22" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H22" t="s" s="77">
+        <v>138</v>
+      </c>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
     </row>
     <row r="23" ht="18.3" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="A23" t="s" s="77">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="C23" s="78">
+        <v>10</v>
+      </c>
       <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="E23" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
+      <c r="G23" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H23" t="s" s="77">
+        <v>139</v>
+      </c>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
     </row>
     <row r="24" ht="18.3" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="A24" t="s" s="77">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="C24" s="78">
+        <v>1</v>
+      </c>
       <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="E24" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
+      <c r="G24" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s" s="77">
+        <v>140</v>
+      </c>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
     </row>
     <row r="25" ht="18.3" customHeight="1">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
+      <c r="A25" t="s" s="77">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="C25" s="78">
+        <v>1</v>
+      </c>
       <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="E25" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
+      <c r="G25" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H25" t="s" s="77">
+        <v>141</v>
+      </c>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
     </row>
     <row r="26" ht="18.3" customHeight="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+      <c r="A26" t="s" s="77">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s" s="77">
+        <v>131</v>
+      </c>
+      <c r="C26" s="78">
+        <v>1</v>
+      </c>
       <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="E26" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
+      <c r="G26" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H26" t="s" s="77">
+        <v>142</v>
+      </c>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
     </row>
     <row r="27" ht="18.3" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
+      <c r="A27" t="s" s="77">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s" s="77">
+        <v>131</v>
+      </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="E27" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
+      <c r="G27" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H27" t="s" s="77">
+        <v>143</v>
+      </c>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
       <c r="L27" s="46"/>
     </row>
     <row r="28" ht="18.3" customHeight="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" t="s" s="77">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s" s="77">
+        <v>131</v>
+      </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="E28" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
+      <c r="G28" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H28" t="s" s="77">
+        <v>144</v>
+      </c>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
       <c r="K28" s="46"/>
       <c r="L28" s="46"/>
     </row>
     <row r="29" ht="18.3" customHeight="1">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" t="s" s="77">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
@@ -35622,8 +36076,12 @@
       <c r="L29" s="46"/>
     </row>
     <row r="30" ht="18.3" customHeight="1">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" t="s" s="77">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
@@ -35762,10 +36220,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.6562" style="81" customWidth="1"/>
+    <col min="1" max="1" width="30.1094" style="81" customWidth="1"/>
     <col min="2" max="2" width="10.7188" style="81" customWidth="1"/>
     <col min="3" max="6" width="8.27344" style="81" customWidth="1"/>
-    <col min="7" max="7" width="29.1328" style="81" customWidth="1"/>
+    <col min="7" max="7" width="22.8828" style="81" customWidth="1"/>
     <col min="8" max="8" width="21.6094" style="81" customWidth="1"/>
     <col min="9" max="9" width="23.8594" style="81" customWidth="1"/>
     <col min="10" max="12" width="19.6016" style="81" customWidth="1"/>
@@ -35862,23 +36320,29 @@
     </row>
     <row r="5" ht="18.3" customHeight="1">
       <c r="A5" t="s" s="77">
-        <v>135</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
+        <v>55</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C5" s="78">
+        <v>10</v>
+      </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="I5" t="s" s="77">
+        <v>120</v>
+      </c>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
     </row>
     <row r="6" ht="18.3" customHeight="1">
       <c r="A6" t="s" s="77">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s" s="77">
         <v>105</v>
@@ -35887,14 +36351,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="46"/>
-      <c r="E6" t="s" s="77">
-        <v>136</v>
-      </c>
+      <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
       <c r="I6" t="s" s="77">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
@@ -35902,7 +36364,7 @@
     </row>
     <row r="7" ht="18.3" customHeight="1">
       <c r="A7" t="s" s="77">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s" s="77">
         <v>105</v>
@@ -35911,14 +36373,12 @@
         <v>10</v>
       </c>
       <c r="D7" s="46"/>
-      <c r="E7" t="s" s="77">
-        <v>136</v>
-      </c>
+      <c r="E7" s="46"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" t="s" s="77">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
@@ -35926,7 +36386,7 @@
     </row>
     <row r="8" ht="18.3" customHeight="1">
       <c r="A8" t="s" s="77">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="77">
         <v>105</v>
@@ -35935,62 +36395,56 @@
         <v>10</v>
       </c>
       <c r="D8" s="46"/>
-      <c r="E8" t="s" s="77">
-        <v>136</v>
-      </c>
+      <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" t="s" s="77">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" ht="18.3" customHeight="1">
+    <row r="9" ht="33.3" customHeight="1">
       <c r="A9" t="s" s="77">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s" s="77">
         <v>105</v>
       </c>
       <c r="C9" s="78">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D9" s="46"/>
-      <c r="E9" t="s" s="77">
-        <v>136</v>
-      </c>
+      <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" t="s" s="77">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" ht="33.3" customHeight="1">
+    <row r="10" ht="18.3" customHeight="1">
       <c r="A10" t="s" s="77">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="77">
         <v>105</v>
       </c>
       <c r="C10" s="78">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D10" s="46"/>
-      <c r="E10" t="s" s="77">
-        <v>136</v>
-      </c>
+      <c r="E10" s="46"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" t="s" s="77">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
@@ -36005,16 +36459,14 @@
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
-      <c r="E11" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E11" s="46"/>
       <c r="F11" t="s" s="77">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
       <c r="I11" t="s" s="77">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
@@ -36022,23 +36474,21 @@
     </row>
     <row r="12" ht="18.3" customHeight="1">
       <c r="A12" t="s" s="77">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="77">
         <v>105</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="78">
+        <v>7</v>
+      </c>
       <c r="D12" s="46"/>
-      <c r="E12" t="s" s="77">
-        <v>137</v>
-      </c>
-      <c r="F12" t="s" s="77">
-        <v>124</v>
-      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
       <c r="I12" t="s" s="77">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
@@ -36046,7 +36496,7 @@
     </row>
     <row r="13" ht="18.3" customHeight="1">
       <c r="A13" t="s" s="77">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s" s="77">
         <v>105</v>
@@ -36054,83 +36504,97 @@
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="F13" t="s" s="77">
+        <v>126</v>
+      </c>
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="I13" t="s" s="77">
+        <v>151</v>
+      </c>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" ht="18.3" customHeight="1">
+    <row r="14" ht="33.3" customHeight="1">
       <c r="A14" t="s" s="77">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="77">
         <v>105</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="78">
+        <v>10</v>
+      </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="I14" t="s" s="77">
+        <v>153</v>
+      </c>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+    <row r="15" ht="33.3" customHeight="1">
+      <c r="A15" t="s" s="77">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C15" s="78">
+        <v>100</v>
+      </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="I15" t="s" s="77">
+        <v>153</v>
+      </c>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
       <c r="A16" t="s" s="77">
-        <v>140</v>
-      </c>
-      <c r="B16" s="46"/>
+        <v>62</v>
+      </c>
+      <c r="B16" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="F16" t="s" s="77">
+        <v>126</v>
+      </c>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="I16" t="s" s="77">
+        <v>127</v>
+      </c>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
       <c r="A17" t="s" s="77">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C17" s="78">
-        <v>100</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E17" s="46"/>
       <c r="F17" s="46"/>
-      <c r="G17" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H17" t="s" s="77">
-        <v>143</v>
-      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
@@ -36138,25 +36602,17 @@
     </row>
     <row r="18" ht="18.3" customHeight="1">
       <c r="A18" t="s" s="77">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C18" s="78">
-        <v>10</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C18" s="46"/>
       <c r="D18" s="46"/>
-      <c r="E18" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E18" s="46"/>
       <c r="F18" s="46"/>
-      <c r="G18" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H18" t="s" s="77">
-        <v>144</v>
-      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -36164,25 +36620,17 @@
     </row>
     <row r="19" ht="18.3" customHeight="1">
       <c r="A19" t="s" s="77">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C19" s="78">
-        <v>10</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E19" s="46"/>
       <c r="F19" s="46"/>
-      <c r="G19" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H19" t="s" s="77">
-        <v>145</v>
-      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="46"/>
@@ -36190,241 +36638,137 @@
     </row>
     <row r="20" ht="18.3" customHeight="1">
       <c r="A20" t="s" s="77">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C20" s="78">
-        <v>10</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E20" s="46"/>
       <c r="F20" s="46"/>
-      <c r="G20" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H20" t="s" s="77">
-        <v>146</v>
-      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" t="s" s="77">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C21" s="78">
-        <v>10</v>
-      </c>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E21" s="46"/>
       <c r="F21" s="46"/>
-      <c r="G21" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H21" t="s" s="77">
-        <v>147</v>
-      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" t="s" s="77">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C22" s="78">
-        <v>100</v>
-      </c>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E22" s="46"/>
       <c r="F22" s="46"/>
-      <c r="G22" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s" s="77">
-        <v>148</v>
-      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
     </row>
     <row r="23" ht="18.3" customHeight="1">
-      <c r="A23" t="s" s="77">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C23" s="78">
-        <v>10</v>
-      </c>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E23" s="46"/>
       <c r="F23" s="46"/>
-      <c r="G23" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H23" t="s" s="77">
-        <v>149</v>
-      </c>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
     </row>
     <row r="24" ht="18.3" customHeight="1">
-      <c r="A24" t="s" s="77">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C24" s="78">
-        <v>1</v>
-      </c>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E24" s="46"/>
       <c r="F24" s="46"/>
-      <c r="G24" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H24" t="s" s="77">
-        <v>150</v>
-      </c>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
     </row>
     <row r="25" ht="18.3" customHeight="1">
-      <c r="A25" t="s" s="77">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C25" s="78">
-        <v>1</v>
-      </c>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="46"/>
-      <c r="E25" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E25" s="46"/>
       <c r="F25" s="46"/>
-      <c r="G25" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H25" t="s" s="77">
-        <v>151</v>
-      </c>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
     </row>
     <row r="26" ht="18.3" customHeight="1">
-      <c r="A26" t="s" s="77">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C26" s="78">
-        <v>1</v>
-      </c>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E26" s="46"/>
       <c r="F26" s="46"/>
-      <c r="G26" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H26" t="s" s="77">
-        <v>152</v>
-      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
     </row>
     <row r="27" ht="18.3" customHeight="1">
-      <c r="A27" t="s" s="77">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s" s="77">
-        <v>141</v>
-      </c>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="G27" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H27" t="s" s="77">
-        <v>153</v>
-      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
       <c r="L27" s="46"/>
     </row>
     <row r="28" ht="18.3" customHeight="1">
-      <c r="A28" t="s" s="77">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s" s="77">
-        <v>141</v>
-      </c>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E28" s="46"/>
       <c r="F28" s="46"/>
-      <c r="G28" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H28" t="s" s="77">
-        <v>154</v>
-      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
       <c r="K28" s="46"/>
       <c r="L28" s="46"/>
     </row>
     <row r="29" ht="18.3" customHeight="1">
-      <c r="A29" t="s" s="77">
-        <v>155</v>
-      </c>
-      <c r="B29" t="s" s="77">
-        <v>105</v>
-      </c>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
@@ -36437,12 +36781,8 @@
       <c r="L29" s="46"/>
     </row>
     <row r="30" ht="18.3" customHeight="1">
-      <c r="A30" t="s" s="77">
-        <v>156</v>
-      </c>
-      <c r="B30" t="s" s="77">
-        <v>105</v>
-      </c>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
@@ -36684,21 +37024,21 @@
         <v>55</v>
       </c>
       <c r="B5" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C5" s="78">
         <v>10</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s" s="77">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
@@ -36710,21 +37050,21 @@
         <v>56</v>
       </c>
       <c r="B6" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C6" s="78">
         <v>10</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s" s="77">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
@@ -36736,21 +37076,21 @@
         <v>57</v>
       </c>
       <c r="B7" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C7" s="78">
         <v>10</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s" s="77">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
@@ -36762,21 +37102,21 @@
         <v>58</v>
       </c>
       <c r="B8" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C8" s="78">
         <v>10</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s" s="77">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
@@ -36788,21 +37128,21 @@
         <v>59</v>
       </c>
       <c r="B9" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C9" s="78">
         <v>100</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H9" t="s" s="77">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
@@ -36814,21 +37154,21 @@
         <v>60</v>
       </c>
       <c r="B10" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C10" s="78">
         <v>1</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s" s="77">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -36837,24 +37177,24 @@
     </row>
     <row r="11" ht="18.3" customHeight="1">
       <c r="A11" t="s" s="77">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C11" s="78">
         <v>7</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s" s="77">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -36863,24 +37203,24 @@
     </row>
     <row r="12" ht="18.3" customHeight="1">
       <c r="A12" t="s" s="77">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C12" s="78">
         <v>100</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F12" s="46"/>
       <c r="G12" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H12" t="s" s="77">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
@@ -36889,24 +37229,24 @@
     </row>
     <row r="13" ht="18.3" customHeight="1">
       <c r="A13" t="s" s="77">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C13" s="78">
         <v>10</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F13" s="46"/>
       <c r="G13" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s" s="77">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
@@ -36915,24 +37255,24 @@
     </row>
     <row r="14" ht="18.3" customHeight="1">
       <c r="A14" t="s" s="77">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C14" s="78">
         <v>100</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s" s="77">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
@@ -36944,21 +37284,21 @@
         <v>62</v>
       </c>
       <c r="B15" t="s" s="77">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C15" s="78">
         <v>1</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H15" t="s" s="77">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
@@ -36967,7 +37307,7 @@
     </row>
     <row r="16" ht="18.3" customHeight="1">
       <c r="A16" t="s" s="77">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="77">
         <v>105</v>
@@ -36985,7 +37325,7 @@
     </row>
     <row r="17" ht="18.3" customHeight="1">
       <c r="A17" t="s" s="77">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="77">
         <v>105</v>
@@ -37003,7 +37343,7 @@
     </row>
     <row r="18" ht="18.3" customHeight="1">
       <c r="A18" t="s" s="77">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="77">
         <v>105</v>
@@ -37021,7 +37361,7 @@
     </row>
     <row r="19" ht="18.3" customHeight="1">
       <c r="A19" t="s" s="77">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s" s="77">
         <v>105</v>
@@ -37312,7 +37652,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -37416,349 +37756,385 @@
       <c r="K4" s="76"/>
       <c r="L4" s="76"/>
     </row>
-    <row r="5" ht="18.3" customHeight="1">
+    <row r="5" ht="33.35" customHeight="1">
       <c r="A5" t="s" s="77">
         <v>55</v>
       </c>
       <c r="B5" t="s" s="77">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C5" s="78">
         <v>10</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s" s="77">
-        <v>144</v>
-      </c>
-      <c r="I5" s="46"/>
+        <v>134</v>
+      </c>
+      <c r="I5" t="s" s="77">
+        <v>166</v>
+      </c>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" ht="18.3" customHeight="1">
+    <row r="6" ht="33.35" customHeight="1">
       <c r="A6" t="s" s="77">
         <v>56</v>
       </c>
       <c r="B6" t="s" s="77">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C6" s="78">
         <v>10</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s" s="77">
-        <v>145</v>
-      </c>
-      <c r="I6" s="46"/>
+        <v>135</v>
+      </c>
+      <c r="I6" t="s" s="77">
+        <v>166</v>
+      </c>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
     </row>
-    <row r="7" ht="18.3" customHeight="1">
+    <row r="7" ht="33.35" customHeight="1">
       <c r="A7" t="s" s="77">
         <v>57</v>
       </c>
       <c r="B7" t="s" s="77">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C7" s="78">
         <v>10</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s" s="77">
-        <v>146</v>
-      </c>
-      <c r="I7" s="46"/>
+        <v>136</v>
+      </c>
+      <c r="I7" t="s" s="77">
+        <v>167</v>
+      </c>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
     </row>
-    <row r="8" ht="18.3" customHeight="1">
+    <row r="8" ht="33.35" customHeight="1">
       <c r="A8" t="s" s="77">
         <v>58</v>
       </c>
       <c r="B8" t="s" s="77">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C8" s="78">
         <v>10</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s" s="77">
-        <v>147</v>
-      </c>
-      <c r="I8" s="46"/>
+        <v>137</v>
+      </c>
+      <c r="I8" t="s" s="77">
+        <v>167</v>
+      </c>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" ht="18.3" customHeight="1">
+    <row r="9" ht="48.35" customHeight="1">
       <c r="A9" t="s" s="77">
         <v>59</v>
       </c>
       <c r="B9" t="s" s="77">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C9" s="78">
         <v>100</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H9" t="s" s="77">
-        <v>148</v>
-      </c>
-      <c r="I9" s="46"/>
+        <v>138</v>
+      </c>
+      <c r="I9" t="s" s="77">
+        <v>168</v>
+      </c>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" ht="18.3" customHeight="1">
+    <row r="10" ht="33.35" customHeight="1">
       <c r="A10" t="s" s="77">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="77">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C10" s="78">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s" s="77">
-        <v>150</v>
-      </c>
-      <c r="I10" s="46"/>
+        <v>139</v>
+      </c>
+      <c r="I10" t="s" s="77">
+        <v>169</v>
+      </c>
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" ht="18.3" customHeight="1">
+    <row r="11" ht="18.35" customHeight="1">
       <c r="A11" t="s" s="77">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C11" s="78">
-        <v>7</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C11" s="46"/>
       <c r="D11" s="46"/>
-      <c r="E11" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E11" s="46"/>
       <c r="F11" s="46"/>
-      <c r="G11" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H11" t="s" s="77">
-        <v>158</v>
-      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
     </row>
-    <row r="12" ht="18.3" customHeight="1">
+    <row r="12" ht="18.35" customHeight="1">
       <c r="A12" t="s" s="77">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s" s="77">
-        <v>141</v>
-      </c>
-      <c r="C12" s="78">
-        <v>100</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C12" s="46"/>
       <c r="D12" s="46"/>
-      <c r="E12" t="s" s="77">
-        <v>137</v>
-      </c>
+      <c r="E12" s="46"/>
       <c r="F12" s="46"/>
-      <c r="G12" t="s" s="77">
-        <v>142</v>
-      </c>
-      <c r="H12" t="s" s="77">
-        <v>159</v>
-      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
     </row>
-    <row r="13" ht="18.3" customHeight="1">
+    <row r="13" ht="33.35" customHeight="1">
       <c r="A13" t="s" s="77">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s" s="77">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C13" s="78">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" t="s" s="77">
-        <v>137</v>
-      </c>
-      <c r="F13" s="46"/>
+        <v>123</v>
+      </c>
+      <c r="F13" t="s" s="77">
+        <v>124</v>
+      </c>
       <c r="G13" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s" s="77">
-        <v>160</v>
-      </c>
-      <c r="I13" s="46"/>
+        <v>140</v>
+      </c>
+      <c r="I13" t="s" s="77">
+        <v>172</v>
+      </c>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" ht="18.3" customHeight="1">
+    <row r="14" ht="33.35" customHeight="1">
       <c r="A14" t="s" s="77">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="77">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C14" s="78">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s" s="77">
-        <v>161</v>
-      </c>
-      <c r="I14" s="46"/>
+        <v>160</v>
+      </c>
+      <c r="I14" t="s" s="77">
+        <v>173</v>
+      </c>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" ht="18.3" customHeight="1">
+    <row r="15" ht="33.35" customHeight="1">
       <c r="A15" t="s" s="77">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s" s="77">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C15" s="78">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" t="s" s="77">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" t="s" s="77">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H15" t="s" s="77">
-        <v>151</v>
-      </c>
-      <c r="I15" s="46"/>
+        <v>161</v>
+      </c>
+      <c r="I15" t="s" s="77">
+        <v>174</v>
+      </c>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" ht="18.3" customHeight="1">
+    <row r="16" ht="48.35" customHeight="1">
       <c r="A16" t="s" s="77">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="77">
-        <v>105</v>
-      </c>
-      <c r="C16" s="46"/>
+        <v>96</v>
+      </c>
+      <c r="C16" s="78">
+        <v>10</v>
+      </c>
       <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="E16" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="G16" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H16" t="s" s="77">
+        <v>162</v>
+      </c>
+      <c r="I16" t="s" s="77">
+        <v>175</v>
+      </c>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" ht="18.3" customHeight="1">
+    <row r="17" ht="48.35" customHeight="1">
       <c r="A17" t="s" s="77">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="77">
-        <v>105</v>
-      </c>
-      <c r="C17" s="46"/>
+        <v>96</v>
+      </c>
+      <c r="C17" s="78">
+        <v>100</v>
+      </c>
       <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="E17" t="s" s="77">
+        <v>123</v>
+      </c>
       <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="G17" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H17" t="s" s="77">
+        <v>163</v>
+      </c>
+      <c r="I17" t="s" s="77">
+        <v>175</v>
+      </c>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" ht="18.3" customHeight="1">
+    <row r="18" ht="33.35" customHeight="1">
       <c r="A18" t="s" s="77">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s" s="77">
-        <v>105</v>
-      </c>
-      <c r="C18" s="46"/>
+        <v>96</v>
+      </c>
+      <c r="C18" s="78">
+        <v>1</v>
+      </c>
       <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="E18" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s" s="77">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s" s="77">
+        <v>132</v>
+      </c>
+      <c r="H18" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="I18" t="s" s="77">
+        <v>176</v>
+      </c>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
       <c r="A19" t="s" s="77">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="77">
         <v>105</v>
@@ -37775,8 +38151,12 @@
       <c r="L19" s="46"/>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+      <c r="A20" t="s" s="77">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
@@ -37788,9 +38168,13 @@
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
     </row>
-    <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
+    <row r="21" ht="18.35" customHeight="1">
+      <c r="A21" t="s" s="77">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
@@ -37803,8 +38187,12 @@
       <c r="L21" s="46"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
+      <c r="A22" t="s" s="77">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s" s="77">
+        <v>105</v>
+      </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
@@ -37998,12 +38386,57 @@
       <c r="K35" s="46"/>
       <c r="L35" s="46"/>
     </row>
+    <row r="36" ht="18.3" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" ht="18.3" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="38">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J36:L36"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="J33:L33"/>
@@ -38027,14 +38460,3427 @@
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J10:L10"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="33.6562" style="84" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="84" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="84" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="84" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="84" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="84" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="84" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>179</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="85">
+        <v>180</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>182</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>184</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="77">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s" s="77">
+        <v>186</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" ht="18.3" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" ht="18.3" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="33.6562" style="86" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="86" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="86" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="86" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="86" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="86" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="86" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>179</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="85">
+        <v>188</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>182</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>190</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" t="s" s="77">
+        <v>191</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" t="s" s="77">
+        <v>192</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" t="s" s="77">
+        <v>193</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" t="s" s="77">
+        <v>194</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" t="s" s="77">
+        <v>195</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" t="s" s="77">
+        <v>196</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" t="s" s="77">
+        <v>197</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" t="s" s="77">
+        <v>198</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" t="s" s="77">
+        <v>199</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" t="s" s="77">
+        <v>196</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="77">
+        <v>200</v>
+      </c>
+      <c r="B16" t="s" s="77">
+        <v>201</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="77">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s" s="77">
+        <v>203</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="77">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s" s="77">
+        <v>205</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" ht="18.3" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" ht="18.3" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
+    <row r="39" ht="18.3" customHeight="1">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+    </row>
+    <row r="40" ht="18.3" customHeight="1">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B15:I15"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="33.6562" style="87" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="87" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="87" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="87" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="87" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="87" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="87" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="87" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>179</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="85">
+        <v>207</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>182</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>209</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" t="s" s="77">
+        <v>210</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" t="s" s="77">
+        <v>211</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" t="s" s="77">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s" s="77">
+        <v>213</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" t="s" s="77">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>215</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" t="s" s="77">
+        <v>216</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" t="s" s="77">
+        <v>217</v>
+      </c>
+      <c r="B11" t="s" s="77">
+        <v>218</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" ht="18.3" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" ht="18.3" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="37.0078" style="88" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="88" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="88" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="88" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="88" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="88" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="88" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="88" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>179</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="85">
+        <v>52</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>220</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>222</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" t="s" s="77">
+        <v>223</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" t="s" s="77">
+        <v>224</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" t="s" s="77">
+        <v>225</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" t="s" s="77">
+        <v>226</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" t="s" s="77">
+        <v>227</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" t="s" s="77">
+        <v>228</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" t="s" s="77">
+        <v>229</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" t="s" s="77">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s" s="77">
+        <v>231</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" t="s" s="77">
+        <v>232</v>
+      </c>
+      <c r="B14" t="s" s="77">
+        <v>233</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" t="s" s="77">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s" s="77">
+        <v>235</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" ht="18.3" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" ht="18.3" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B20:I20"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="37.0078" style="89" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="89" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="89" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="89" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="89" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="89" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="89" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>179</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="85">
+        <v>237</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>220</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" ht="18.3" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" ht="18.3" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/基本設計・詳細設計/詳細設計書.xlsx
+++ b/基本設計・詳細設計/詳細設計書.xlsx
@@ -32,13 +32,17 @@
     <sheet name="イベント一覧(TOPページ)" sheetId="25" r:id="rId28"/>
     <sheet name="イベント一覧(アカウント登録)" sheetId="26" r:id="rId29"/>
     <sheet name="イベント一覧(アカウント検索画面)" sheetId="27" r:id="rId30"/>
-    <sheet name="イベント一覧(アカウント更新操作)" sheetId="28" r:id="rId31"/>
+    <sheet name="イベント一覧(アカウント削除操作)" sheetId="28" r:id="rId31"/>
+    <sheet name="イベント一覧(アカウント更新操作)" sheetId="29" r:id="rId32"/>
+    <sheet name="更新仕様書" sheetId="30" r:id="rId33"/>
+    <sheet name="補足説明(アカウント登録操作)" sheetId="31" r:id="rId34"/>
+    <sheet name="補足説明(アカウント検索画面)" sheetId="32" r:id="rId35"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -756,10 +760,154 @@
     <t>「アカウント削除画面」を表示</t>
   </si>
   <si>
+    <t>イベント一覧(アカウント削除操作)</t>
+  </si>
+  <si>
+    <t>アカウント更新操作</t>
+  </si>
+  <si>
+    <t>　　引数6：login_user_transaction.gender, int , 1 , Y , 男性または女性</t>
+  </si>
+  <si>
+    <t>　　引数7：login_user_transaction.postal_code , int , 7 , Y , 半角数字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　引数8：login_user_transaction.prefecture, varchar , 100 , Y </t>
+  </si>
+  <si>
+    <t>　　引数9：login_user_transaction.address_1, varchar , 100 , Y , ひらがな・カタカナ・漢字・半角英数字</t>
+  </si>
+  <si>
+    <t>　　引数10：login_user_transaction.address_2, varchar , 100 , Y , ひらがな・カタカナ・漢字・半角英数字</t>
+  </si>
+  <si>
+    <t>　　引数11：login_user_transaction.authority, int , 1 , Y , 一般または管理者</t>
+  </si>
+  <si>
+    <t>「アカウント削除確認画面」に遷移</t>
+  </si>
+  <si>
+    <t>「アカウント削除画面」に遷移</t>
+  </si>
+  <si>
+    <t>削除するボタン.クリック</t>
+  </si>
+  <si>
+    <t>データベース(login_user_transactionテーブルの項目delete_flg)を更新</t>
+  </si>
+  <si>
     <t>イベント一覧(アカウント更新操作)</t>
   </si>
   <si>
-    <t>アカウント更新操作</t>
+    <t>表示/非表示ボタン.クリック</t>
+  </si>
+  <si>
+    <t>パスワードの表示・非表示を切り替える</t>
+  </si>
+  <si>
+    <t>「アカウント更新確認画面」に遷移</t>
+  </si>
+  <si>
+    <t>「アカウント更新画面」に遷移</t>
+  </si>
+  <si>
+    <t>更新するボタン.クリック</t>
+  </si>
+  <si>
+    <t>更新仕様書</t>
+  </si>
+  <si>
+    <t>更新・処理仕様書</t>
+  </si>
+  <si>
+    <t>インターフェース</t>
+  </si>
+  <si>
+    <t>更新元データ</t>
+  </si>
+  <si>
+    <t>更新対象データ</t>
+  </si>
+  <si>
+    <t>パラメータ</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>項目（列）</t>
+  </si>
+  <si>
+    <t>（自動採番ロジック）</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>補足説明(アカウント登録操作)</t>
+  </si>
+  <si>
+    <t>アカウント登録・更新操作</t>
+  </si>
+  <si>
+    <t>　1. 入力値エラーチェック</t>
+  </si>
+  <si>
+    <t>　　　入力欄ごとにエラーチェックを行い例えば「名前（姓）」未入力の場合、「名前（姓）が未入力です。」と赤字でエラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>　　　また、各項目に指定された文字が入力された場合も該当項目の直下に赤字でエラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>　　　※各項目の入力条件については以下参照</t>
+  </si>
+  <si>
+    <t>　　　「名前（姓）」「名前（名）」　　　　：ひらがな、漢字のみ</t>
+  </si>
+  <si>
+    <t>　　　「カナ（姓）」「カナ（名）」　　　　：カタカナのみ</t>
+  </si>
+  <si>
+    <t>　　　「パスワード」　　　　　　　　　　　：半角英数字のみ</t>
+  </si>
+  <si>
+    <t>　　　「メールアドレス」　　　　　　　　　：半角英数字、半角記号(ハイフン、アットマーク)のみ</t>
+  </si>
+  <si>
+    <t>　　　「郵便番号」　　　　　　　　　　　　：半角数字のみ</t>
+  </si>
+  <si>
+    <t>　　　「住所（市区町村）」「住所（番地）」：ひらがな、漢字、カタカナ、数字、記号(ハイフン、アットマーク)のみ</t>
+  </si>
+  <si>
+    <t>補足説明(アカウント検索画面)</t>
+  </si>
+  <si>
+    <t>　1. 表示順</t>
+  </si>
+  <si>
+    <t>　　　id番号の降順</t>
+  </si>
+  <si>
+    <t>　2. 検索結果</t>
+  </si>
+  <si>
+    <t>　　　検索条件に該当する情報がなければ「条件に該当するアカウント情報はありません」と表示する。</t>
+  </si>
+  <si>
+    <t>　3. 検索条件</t>
+  </si>
+  <si>
+    <t>　　　検索条件を複数入力して「検索」ボタンを押下する場合、AND条件で一致するアカウント情報を表示する</t>
   </si>
 </sst>
 </file>
@@ -885,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1262,13 +1410,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1534,6 +1772,54 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -25595,6 +25881,70 @@
         <v>236</v>
       </c>
     </row>
+    <row r="60">
+      <c r="B60" t="s" s="3">
+        <v>248</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="4"/>
+      <c r="C61" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s" s="5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="3">
+        <v>254</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="4"/>
+      <c r="C63" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s" s="5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="3">
+        <v>267</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="4"/>
+      <c r="C65" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s" s="5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="3">
+        <v>279</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="4"/>
+      <c r="C67" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s" s="5">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -25626,7 +25976,11 @@
     <hyperlink ref="D53" location="'イベント一覧(TOPページ)'!R1C1" tooltip="" display="イベント一覧(TOPページ)"/>
     <hyperlink ref="D55" location="'イベント一覧(アカウント登録)'!R1C1" tooltip="" display="イベント一覧(アカウント登録)"/>
     <hyperlink ref="D57" location="'イベント一覧(アカウント検索画面)'!R1C1" tooltip="" display="イベント一覧(アカウント検索画面)"/>
-    <hyperlink ref="D59" location="'イベント一覧(アカウント更新操作)'!R1C1" tooltip="" display="イベント一覧(アカウント更新操作)"/>
+    <hyperlink ref="D59" location="'イベント一覧(アカウント削除操作)'!R1C1" tooltip="" display="イベント一覧(アカウント削除操作)"/>
+    <hyperlink ref="D61" location="'イベント一覧(アカウント更新操作)'!R1C1" tooltip="" display="イベント一覧(アカウント更新操作)"/>
+    <hyperlink ref="D63" location="'更新仕様書'!R1C1" tooltip="" display="更新仕様書"/>
+    <hyperlink ref="D65" location="'補足説明(アカウント登録操作)'!R1C1" tooltip="" display="補足説明(アカウント登録操作)"/>
+    <hyperlink ref="D67" location="'補足説明(アカウント検索画面)'!R1C1" tooltip="" display="補足説明(アカウント検索画面)"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -41331,8 +41685,12 @@
       <c r="L4" s="76"/>
     </row>
     <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" t="s" s="77">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>222</v>
+      </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -41346,7 +41704,9 @@
     </row>
     <row r="6" ht="18.3" customHeight="1">
       <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="B6" t="s" s="77">
+        <v>223</v>
+      </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -41360,7 +41720,9 @@
     </row>
     <row r="7" ht="18.3" customHeight="1">
       <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="B7" t="s" s="77">
+        <v>224</v>
+      </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
@@ -41374,7 +41736,9 @@
     </row>
     <row r="8" ht="18.3" customHeight="1">
       <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="B8" t="s" s="77">
+        <v>225</v>
+      </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -41388,7 +41752,9 @@
     </row>
     <row r="9" ht="18.3" customHeight="1">
       <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="B9" t="s" s="77">
+        <v>226</v>
+      </c>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
@@ -41402,7 +41768,9 @@
     </row>
     <row r="10" ht="18.3" customHeight="1">
       <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="B10" t="s" s="77">
+        <v>238</v>
+      </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -41416,7 +41784,9 @@
     </row>
     <row r="11" ht="18.3" customHeight="1">
       <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="B11" t="s" s="77">
+        <v>239</v>
+      </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -41430,7 +41800,9 @@
     </row>
     <row r="12" ht="18.3" customHeight="1">
       <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="B12" t="s" s="77">
+        <v>240</v>
+      </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
@@ -41444,7 +41816,9 @@
     </row>
     <row r="13" ht="18.3" customHeight="1">
       <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="B13" t="s" s="77">
+        <v>241</v>
+      </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
@@ -41458,7 +41832,9 @@
     </row>
     <row r="14" ht="18.3" customHeight="1">
       <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
+      <c r="B14" t="s" s="77">
+        <v>242</v>
+      </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -41472,7 +41848,9 @@
     </row>
     <row r="15" ht="18.3" customHeight="1">
       <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+      <c r="B15" t="s" s="77">
+        <v>243</v>
+      </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -41485,8 +41863,12 @@
       <c r="L15" s="46"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+      <c r="A16" t="s" s="77">
+        <v>208</v>
+      </c>
+      <c r="B16" t="s" s="77">
+        <v>244</v>
+      </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -41499,8 +41881,12 @@
       <c r="L16" s="46"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
+      <c r="A17" t="s" s="77">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="77">
+        <v>245</v>
+      </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
@@ -41513,8 +41899,12 @@
       <c r="L17" s="46"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
+      <c r="A18" t="s" s="77">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s" s="77">
+        <v>247</v>
+      </c>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
@@ -41527,8 +41917,12 @@
       <c r="L18" s="46"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+      <c r="A19" t="s" s="77">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s" s="77">
+        <v>218</v>
+      </c>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -41847,7 +42241,6 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B36:I36"/>
@@ -41863,24 +42256,730 @@
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B21:I21"/>
     <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B13:I13"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B19:I19"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="37.0078" style="90" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="90" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="90" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="90" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="90" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="90" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="90" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>179</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="85">
+        <v>237</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.65" customHeight="1">
+      <c r="A4" t="s" s="74">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s" s="74">
+        <v>220</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="77">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s" s="77">
+        <v>222</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" t="s" s="77">
+        <v>223</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" t="s" s="77">
+        <v>224</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" t="s" s="77">
+        <v>225</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" t="s" s="77">
+        <v>226</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" t="s" s="77">
+        <v>238</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" t="s" s="77">
+        <v>239</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" t="s" s="77">
+        <v>240</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" t="s" s="77">
+        <v>241</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" t="s" s="77">
+        <v>242</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" t="s" s="77">
+        <v>243</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="77">
+        <v>249</v>
+      </c>
+      <c r="B16" t="s" s="77">
+        <v>250</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="77">
+        <v>208</v>
+      </c>
+      <c r="B17" t="s" s="77">
+        <v>209</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" t="s" s="77">
+        <v>210</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" t="s" s="77">
+        <v>251</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" t="s" s="77">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s" s="77">
+        <v>252</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" t="s" s="77">
+        <v>253</v>
+      </c>
+      <c r="B21" t="s" s="77">
+        <v>215</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" t="s" s="77">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s" s="77">
+        <v>218</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" ht="18.3" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" ht="18.3" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
     <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -42307,6 +43406,2116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="27.9766" style="91" customWidth="1"/>
+    <col min="2" max="2" width="10.0312" style="91" customWidth="1"/>
+    <col min="3" max="4" width="8.27344" style="91" customWidth="1"/>
+    <col min="5" max="5" width="12.3594" style="91" customWidth="1"/>
+    <col min="6" max="6" width="25.0938" style="91" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="91" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="91" customWidth="1"/>
+    <col min="9" max="9" width="11.1328" style="91" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="91" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="91" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>255</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="85">
+        <v>237</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" t="s" s="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.95" customHeight="1">
+      <c r="A4" t="s" s="92">
+        <v>256</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" t="s" s="94">
+        <v>257</v>
+      </c>
+      <c r="G4" t="s" s="92">
+        <v>258</v>
+      </c>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" t="s" s="94">
+        <v>104</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+    </row>
+    <row r="5" ht="18.95" customHeight="1">
+      <c r="A5" t="s" s="95">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s" s="95">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s" s="95">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s" s="95">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s" s="95">
+        <v>260</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" t="s" s="95">
+        <v>261</v>
+      </c>
+      <c r="H5" t="s" s="95">
+        <v>262</v>
+      </c>
+      <c r="I5" t="s" s="95">
+        <v>76</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+    </row>
+    <row r="6" ht="18.65" customHeight="1">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" t="s" s="97">
+        <v>263</v>
+      </c>
+      <c r="G6" t="s" s="97">
+        <v>132</v>
+      </c>
+      <c r="H6" t="s" s="97">
+        <v>133</v>
+      </c>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="77">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D7" s="78">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="F7" t="s" s="77">
+        <v>134</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" t="s" s="77">
+        <v>134</v>
+      </c>
+      <c r="I7" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" t="s" s="77">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D8" s="78">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="F8" t="s" s="77">
+        <v>135</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" t="s" s="77">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" t="s" s="77">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D9" s="78">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="F9" t="s" s="77">
+        <v>136</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" t="s" s="77">
+        <v>136</v>
+      </c>
+      <c r="I9" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D10" s="78">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="F10" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" t="s" s="77">
+        <v>137</v>
+      </c>
+      <c r="I10" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" t="s" s="77">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D11" s="78">
+        <v>255</v>
+      </c>
+      <c r="E11" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="F11" t="s" s="77">
+        <v>138</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" t="s" s="77">
+        <v>138</v>
+      </c>
+      <c r="I11" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" t="s" s="77">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="78">
+        <v>255</v>
+      </c>
+      <c r="E12" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="F12" t="s" s="77">
+        <v>139</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" t="s" s="77">
+        <v>139</v>
+      </c>
+      <c r="I12" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" t="s" s="77">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D13" s="78">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="77">
+        <v>265</v>
+      </c>
+      <c r="F13" t="s" s="77">
+        <v>140</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" t="s" s="77">
+        <v>140</v>
+      </c>
+      <c r="I13" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" t="s" s="77">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D14" s="78">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s" s="77">
+        <v>265</v>
+      </c>
+      <c r="F14" t="s" s="77">
+        <v>160</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" t="s" s="77">
+        <v>160</v>
+      </c>
+      <c r="I14" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" t="s" s="77">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D15" s="78">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="F15" t="s" s="77">
+        <v>161</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" t="s" s="77">
+        <v>161</v>
+      </c>
+      <c r="I15" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="77">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D16" s="78">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="F16" t="s" s="77">
+        <v>162</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" t="s" s="77">
+        <v>162</v>
+      </c>
+      <c r="I16" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="77">
+        <v>163</v>
+      </c>
+      <c r="B17" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D17" s="78">
+        <v>255</v>
+      </c>
+      <c r="E17" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="F17" t="s" s="77">
+        <v>163</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" t="s" s="77">
+        <v>163</v>
+      </c>
+      <c r="I17" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s" s="77">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="D18" s="78">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="77">
+        <v>265</v>
+      </c>
+      <c r="F18" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" t="s" s="77">
+        <v>141</v>
+      </c>
+      <c r="I18" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="78">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="77">
+        <v>265</v>
+      </c>
+      <c r="F19" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" t="s" s="77">
+        <v>142</v>
+      </c>
+      <c r="I19" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" t="s" s="77">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" t="s" s="77">
+        <v>266</v>
+      </c>
+      <c r="F20" t="s" s="77">
+        <v>143</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" t="s" s="77">
+        <v>143</v>
+      </c>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" t="s" s="77">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s" s="77">
+        <v>105</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" t="s" s="77">
+        <v>266</v>
+      </c>
+      <c r="F21" t="s" s="77">
+        <v>144</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" t="s" s="77">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s" s="77">
+        <v>123</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" ht="18.3" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" ht="18.3" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L5"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="37.0078" style="98" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="98" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="98" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="98" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="98" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="98" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="98" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="98" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>179</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="38">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="99">
+        <v>268</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" t="s" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.45" customHeight="1">
+      <c r="A4" s="100"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" ht="17.95" customHeight="1">
+      <c r="A5" t="s" s="101">
+        <v>269</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="102"/>
+    </row>
+    <row r="6" ht="17.95" customHeight="1">
+      <c r="A6" t="s" s="101">
+        <v>270</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="102"/>
+    </row>
+    <row r="7" ht="17.95" customHeight="1">
+      <c r="A7" t="s" s="101">
+        <v>271</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="102"/>
+    </row>
+    <row r="8" ht="17.95" customHeight="1">
+      <c r="A8" t="s" s="101">
+        <v>272</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="102"/>
+    </row>
+    <row r="9" ht="17.95" customHeight="1">
+      <c r="A9" s="67"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="102"/>
+    </row>
+    <row r="10" ht="17.95" customHeight="1">
+      <c r="A10" t="s" s="101">
+        <v>273</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="102"/>
+    </row>
+    <row r="11" ht="17.95" customHeight="1">
+      <c r="A11" t="s" s="101">
+        <v>274</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="102"/>
+    </row>
+    <row r="12" ht="17.95" customHeight="1">
+      <c r="A12" t="s" s="101">
+        <v>275</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="102"/>
+    </row>
+    <row r="13" ht="17.95" customHeight="1">
+      <c r="A13" t="s" s="101">
+        <v>276</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="102"/>
+    </row>
+    <row r="14" ht="17.95" customHeight="1">
+      <c r="A14" t="s" s="101">
+        <v>277</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="102"/>
+    </row>
+    <row r="15" ht="17.95" customHeight="1">
+      <c r="A15" t="s" s="101">
+        <v>278</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="102"/>
+    </row>
+    <row r="16" ht="17.95" customHeight="1">
+      <c r="A16" s="67"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="102"/>
+    </row>
+    <row r="17" ht="17.95" customHeight="1">
+      <c r="A17" s="67"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="102"/>
+    </row>
+    <row r="18" ht="17.95" customHeight="1">
+      <c r="A18" s="67"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="102"/>
+    </row>
+    <row r="19" ht="17.95" customHeight="1">
+      <c r="A19" s="67"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="102"/>
+    </row>
+    <row r="20" ht="17.95" customHeight="1">
+      <c r="A20" s="67"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="102"/>
+    </row>
+    <row r="21" ht="17.95" customHeight="1">
+      <c r="A21" s="67"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="102"/>
+    </row>
+    <row r="22" ht="17.95" customHeight="1">
+      <c r="A22" s="67"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="102"/>
+    </row>
+    <row r="23" ht="17.95" customHeight="1">
+      <c r="A23" s="67"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="102"/>
+    </row>
+    <row r="24" ht="17.95" customHeight="1">
+      <c r="A24" s="67"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="102"/>
+    </row>
+    <row r="25" ht="17.95" customHeight="1">
+      <c r="A25" s="67"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="102"/>
+    </row>
+    <row r="26" ht="17.95" customHeight="1">
+      <c r="A26" s="67"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="102"/>
+    </row>
+    <row r="27" ht="17.95" customHeight="1">
+      <c r="A27" s="67"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="102"/>
+    </row>
+    <row r="28" ht="17.95" customHeight="1">
+      <c r="A28" s="67"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="102"/>
+    </row>
+    <row r="29" ht="17.95" customHeight="1">
+      <c r="A29" s="67"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="102"/>
+    </row>
+    <row r="30" ht="17.95" customHeight="1">
+      <c r="A30" s="67"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="102"/>
+    </row>
+    <row r="31" ht="17.95" customHeight="1">
+      <c r="A31" s="67"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="102"/>
+    </row>
+    <row r="32" ht="17.95" customHeight="1">
+      <c r="A32" s="67"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="102"/>
+    </row>
+    <row r="33" ht="17.95" customHeight="1">
+      <c r="A33" s="67"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="102"/>
+    </row>
+    <row r="34" ht="17.95" customHeight="1">
+      <c r="A34" s="67"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="102"/>
+    </row>
+    <row r="35" ht="17.95" customHeight="1">
+      <c r="A35" s="67"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="102"/>
+    </row>
+    <row r="36" ht="17.95" customHeight="1">
+      <c r="A36" s="67"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="102"/>
+    </row>
+    <row r="37" ht="18.45" customHeight="1">
+      <c r="A37" s="103"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A12:L12"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="37.0078" style="105" customWidth="1"/>
+    <col min="2" max="2" width="10.7188" style="105" customWidth="1"/>
+    <col min="3" max="6" width="8.27344" style="105" customWidth="1"/>
+    <col min="7" max="7" width="29.1328" style="105" customWidth="1"/>
+    <col min="8" max="8" width="21.6094" style="105" customWidth="1"/>
+    <col min="9" max="9" width="23.8594" style="105" customWidth="1"/>
+    <col min="10" max="12" width="19.6016" style="105" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="105" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="37">
+        <v>179</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="38">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="99">
+        <v>52</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" t="s" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="18.45" customHeight="1">
+      <c r="A4" s="100"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" ht="17.95" customHeight="1">
+      <c r="A5" t="s" s="101">
+        <v>280</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="102"/>
+    </row>
+    <row r="6" ht="17.95" customHeight="1">
+      <c r="A6" t="s" s="101">
+        <v>281</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="102"/>
+    </row>
+    <row r="7" ht="17.95" customHeight="1">
+      <c r="A7" t="s" s="101">
+        <v>282</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="102"/>
+    </row>
+    <row r="8" ht="17.95" customHeight="1">
+      <c r="A8" t="s" s="101">
+        <v>283</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="102"/>
+    </row>
+    <row r="9" ht="17.95" customHeight="1">
+      <c r="A9" t="s" s="101">
+        <v>284</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="102"/>
+    </row>
+    <row r="10" ht="17.95" customHeight="1">
+      <c r="A10" t="s" s="101">
+        <v>285</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="102"/>
+    </row>
+    <row r="11" ht="17.95" customHeight="1">
+      <c r="A11" s="67"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="102"/>
+    </row>
+    <row r="12" ht="17.95" customHeight="1">
+      <c r="A12" s="67"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="102"/>
+    </row>
+    <row r="13" ht="17.95" customHeight="1">
+      <c r="A13" s="67"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="102"/>
+    </row>
+    <row r="14" ht="17.95" customHeight="1">
+      <c r="A14" s="67"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="102"/>
+    </row>
+    <row r="15" ht="17.95" customHeight="1">
+      <c r="A15" s="67"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="102"/>
+    </row>
+    <row r="16" ht="17.95" customHeight="1">
+      <c r="A16" s="67"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="102"/>
+    </row>
+    <row r="17" ht="17.95" customHeight="1">
+      <c r="A17" s="67"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="102"/>
+    </row>
+    <row r="18" ht="17.95" customHeight="1">
+      <c r="A18" s="67"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="102"/>
+    </row>
+    <row r="19" ht="17.95" customHeight="1">
+      <c r="A19" s="67"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="102"/>
+    </row>
+    <row r="20" ht="17.95" customHeight="1">
+      <c r="A20" s="67"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="102"/>
+    </row>
+    <row r="21" ht="17.95" customHeight="1">
+      <c r="A21" s="67"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="102"/>
+    </row>
+    <row r="22" ht="17.95" customHeight="1">
+      <c r="A22" s="67"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="102"/>
+    </row>
+    <row r="23" ht="17.95" customHeight="1">
+      <c r="A23" s="67"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="102"/>
+    </row>
+    <row r="24" ht="17.95" customHeight="1">
+      <c r="A24" s="67"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="102"/>
+    </row>
+    <row r="25" ht="17.95" customHeight="1">
+      <c r="A25" s="67"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="102"/>
+    </row>
+    <row r="26" ht="17.95" customHeight="1">
+      <c r="A26" s="67"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="102"/>
+    </row>
+    <row r="27" ht="17.95" customHeight="1">
+      <c r="A27" s="67"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="102"/>
+    </row>
+    <row r="28" ht="17.95" customHeight="1">
+      <c r="A28" s="67"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="102"/>
+    </row>
+    <row r="29" ht="17.95" customHeight="1">
+      <c r="A29" s="67"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="102"/>
+    </row>
+    <row r="30" ht="17.95" customHeight="1">
+      <c r="A30" s="67"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="102"/>
+    </row>
+    <row r="31" ht="17.95" customHeight="1">
+      <c r="A31" s="67"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="102"/>
+    </row>
+    <row r="32" ht="17.95" customHeight="1">
+      <c r="A32" s="67"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="102"/>
+    </row>
+    <row r="33" ht="17.95" customHeight="1">
+      <c r="A33" s="67"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="102"/>
+    </row>
+    <row r="34" ht="17.95" customHeight="1">
+      <c r="A34" s="67"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="102"/>
+    </row>
+    <row r="35" ht="17.95" customHeight="1">
+      <c r="A35" s="67"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="102"/>
+    </row>
+    <row r="36" ht="17.95" customHeight="1">
+      <c r="A36" s="67"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="102"/>
+    </row>
+    <row r="37" ht="18.45" customHeight="1">
+      <c r="A37" s="103"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A5:L5"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
